--- a/whowherewhen/whowhenwhere_test_result_kriminalitas_evaluated.xlsx
+++ b/whowherewhen/whowhenwhere_test_result_kriminalitas_evaluated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PetaKabar\whowherewhen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0233DECE-DF39-4C52-A3C7-2EFE530811CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{085D2EA3-DD4A-4FF7-ADB1-9D71A57964BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17177,8 +17177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W249"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G203" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P220" sqref="P220"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17700,7 +17700,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -26217,7 +26217,7 @@
         <v>0</v>
       </c>
       <c r="G128" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H128">
         <v>0</v>
@@ -28276,7 +28276,7 @@
         <v>1</v>
       </c>
       <c r="G157" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="H157">
         <v>0</v>
@@ -29341,7 +29341,7 @@
         <v>1</v>
       </c>
       <c r="G172" t="s">
-        <v>27</v>
+        <v>320</v>
       </c>
       <c r="H172">
         <v>0</v>
@@ -30335,7 +30335,7 @@
         <v>0</v>
       </c>
       <c r="G186" t="s">
-        <v>27</v>
+        <v>161</v>
       </c>
       <c r="H186">
         <v>0</v>
